--- a/WorkBot/main/backend/ordering/OrderFiles/Sysco/Sysco_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Sysco/Sysco_Triphammer_20250704.xlsx
@@ -451,486 +451,486 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1161181</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cream Cheese</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.77</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>197.31</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7119615</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naked - Berry Blast</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7119284</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naked - Blue Machine</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7119269</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Naked - Green Machine</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7119250</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Naked - Mighty Mango</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7119223</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naked - Strawberry Banana</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8399529</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gatorade Frost Riptide Rush</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.40</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58.80</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7468507</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gatorade Lemon Lime</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7468556</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gatorade Orange</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0633226</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chobani - Strawberry &amp; Banana</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31.28</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2240376</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chobani - Vanilla</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.17</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>32.34</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3308014</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chobani - Blueberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7937269</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chobani - Peach</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16.17</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16.17</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5756038</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SABRA - Hummus Classic With Pretzels</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>31.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>31.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5756040</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SABRA - Hummus Red Pepper With Pretzels</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8821554</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Frz Lemonade</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>48.85</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>97.70</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2072536</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Frz Orange Juice</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>116.24</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>116.24</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6596787</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sweet Street - Bar Lemon Luscious Sliced</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>169.42</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
